--- a/BackTest/2019-10-22 BackTest OGO.xlsx
+++ b/BackTest/2019-10-22 BackTest OGO.xlsx
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -9236,14 +9236,20 @@
         <v>20.76166666666667</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>20.1</v>
+      </c>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9271,14 +9277,20 @@
         <v>20.74333333333334</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>20</v>
+      </c>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9313,7 +9325,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9348,7 +9364,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9383,7 +9403,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9418,7 +9442,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9446,14 +9474,20 @@
         <v>20.67166666666667</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>20.3</v>
+      </c>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9481,14 +9515,20 @@
         <v>20.65666666666667</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>20.3</v>
+      </c>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9516,14 +9556,20 @@
         <v>20.63833333333334</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>20.1</v>
+      </c>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9551,14 +9597,20 @@
         <v>20.62333333333333</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>20.2</v>
+      </c>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9586,14 +9638,20 @@
         <v>20.605</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>20</v>
+      </c>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9621,14 +9679,20 @@
         <v>20.59</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>20.2</v>
+      </c>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9663,7 +9727,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9698,7 +9766,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9733,7 +9805,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9768,7 +9844,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9803,7 +9883,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -9838,7 +9922,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -9873,7 +9961,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -9908,7 +10000,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -9943,7 +10039,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -9978,7 +10078,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10013,7 +10117,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10041,14 +10149,20 @@
         <v>20.34833333333334</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>19.7</v>
+      </c>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10076,14 +10190,20 @@
         <v>20.31833333333333</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>19.7</v>
+      </c>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10111,14 +10231,20 @@
         <v>20.3</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>19.6</v>
+      </c>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10146,14 +10272,20 @@
         <v>20.28166666666666</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>19.8</v>
+      </c>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10181,14 +10313,20 @@
         <v>20.25999999999999</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>19.8</v>
+      </c>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10216,14 +10354,20 @@
         <v>20.23833333333333</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>19.8</v>
+      </c>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10251,14 +10395,20 @@
         <v>20.215</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>19.8</v>
+      </c>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10293,7 +10443,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10328,7 +10482,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10363,7 +10521,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10398,7 +10560,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10433,7 +10599,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10468,7 +10638,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10503,7 +10677,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10538,7 +10716,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10573,7 +10755,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10608,7 +10794,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10636,18 +10826,16 @@
         <v>19.99333333333333</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>19.5</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M293" t="n">
@@ -10677,14 +10865,12 @@
         <v>19.96833333333332</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
@@ -10718,14 +10904,12 @@
         <v>19.94999999999999</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>19.6</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
@@ -10759,14 +10943,12 @@
         <v>19.92499999999999</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>19.6</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
@@ -10800,14 +10982,12 @@
         <v>19.90833333333332</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>19.5</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
@@ -10841,14 +11021,12 @@
         <v>19.89333333333332</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
@@ -10882,14 +11060,12 @@
         <v>19.88166666666666</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>19.6</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
@@ -10923,14 +11099,12 @@
         <v>19.87166666666666</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>19.6</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
@@ -10964,14 +11138,12 @@
         <v>19.86333333333332</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>19.5</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
@@ -11005,14 +11177,12 @@
         <v>19.84333333333332</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
@@ -11046,14 +11216,12 @@
         <v>19.82999999999999</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>19.3</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
@@ -11087,14 +11255,12 @@
         <v>19.81166666666665</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>19.5</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
@@ -11128,14 +11294,12 @@
         <v>19.79833333333332</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>19.3</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
@@ -11169,14 +11333,12 @@
         <v>19.77499999999998</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>19.3</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
@@ -11210,14 +11372,12 @@
         <v>19.76166666666665</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>19.3</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
@@ -11251,14 +11411,12 @@
         <v>19.74999999999999</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>19.3</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
@@ -11292,14 +11450,12 @@
         <v>19.73499999999999</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
         <is>
@@ -11333,14 +11489,12 @@
         <v>19.72499999999999</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>19.2</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr">
         <is>
@@ -11374,14 +11528,12 @@
         <v>19.71499999999999</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
         <is>
@@ -11415,14 +11567,12 @@
         <v>19.70499999999999</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>19.2</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
         <is>
@@ -11456,14 +11606,12 @@
         <v>19.70666666666666</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>19.5</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr">
         <is>
@@ -11497,14 +11645,12 @@
         <v>19.69499999999999</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>19.5</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr">
         <is>
@@ -11538,14 +11684,12 @@
         <v>19.69166666666666</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr">
         <is>
@@ -11579,14 +11723,12 @@
         <v>19.68499999999999</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>19.6</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
@@ -11620,14 +11762,12 @@
         <v>19.67999999999999</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>19.6</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
@@ -11661,14 +11801,12 @@
         <v>19.66999999999999</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>19.7</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
@@ -11702,14 +11840,12 @@
         <v>19.65999999999999</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>19.7</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
@@ -11743,14 +11879,12 @@
         <v>19.65333333333333</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>19.7</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr">
         <is>
@@ -11784,14 +11918,12 @@
         <v>19.64499999999999</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>19.7</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
@@ -11825,14 +11957,12 @@
         <v>19.63999999999999</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>19.7</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr">
         <is>
@@ -11866,14 +11996,12 @@
         <v>19.63333333333333</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>19.7</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
@@ -11907,14 +12035,12 @@
         <v>19.62166666666666</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr">
         <is>
@@ -11948,14 +12074,12 @@
         <v>19.61</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr">
         <is>
@@ -11989,14 +12113,12 @@
         <v>19.6</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>19.5</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr">
         <is>
@@ -12030,14 +12152,12 @@
         <v>19.6</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>19.7</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr">
         <is>
@@ -12071,14 +12191,12 @@
         <v>19.595</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>19.7</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
@@ -12112,14 +12230,12 @@
         <v>19.59333333333333</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
@@ -12153,14 +12269,12 @@
         <v>19.59166666666666</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>19.7</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr">
         <is>
@@ -12194,14 +12308,12 @@
         <v>19.595</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>19.7</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr">
         <is>
@@ -12235,14 +12347,12 @@
         <v>19.595</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>19.7</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr">
         <is>
@@ -12276,14 +12386,12 @@
         <v>19.595</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>19.7</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr">
         <is>
@@ -12317,14 +12425,12 @@
         <v>19.59</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>19.5</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr">
         <is>
@@ -12358,14 +12464,12 @@
         <v>19.59</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>19.7</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr">
         <is>
@@ -12594,14 +12698,12 @@
         <v>19.58666666666667</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="n">
-        <v>19.7</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr">
         <is>
@@ -12635,14 +12737,12 @@
         <v>19.58666666666667</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>19.6</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr">
         <is>
@@ -12676,14 +12776,12 @@
         <v>19.585</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>19.6</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr">
         <is>
@@ -12717,14 +12815,12 @@
         <v>19.58333333333334</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>19.7</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr">
         <is>
@@ -12797,14 +12893,12 @@
         <v>19.57666666666667</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr">
         <is>
@@ -12838,14 +12932,12 @@
         <v>19.58000000000001</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr">
         <is>
@@ -12879,14 +12971,12 @@
         <v>19.58000000000001</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>19.6</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr">
         <is>
@@ -12959,14 +13049,12 @@
         <v>19.58500000000001</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>19.7</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr">
         <is>
@@ -13000,14 +13088,12 @@
         <v>19.58833333333335</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>19.6</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr">
         <is>
@@ -13041,14 +13127,12 @@
         <v>19.57833333333334</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr">
         <is>
@@ -13082,14 +13166,12 @@
         <v>19.57333333333334</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>19.3</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr">
         <is>
@@ -13201,14 +13283,12 @@
         <v>19.56000000000002</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="n">
-        <v>19.3</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr">
         <is>
@@ -13242,14 +13322,12 @@
         <v>19.55833333333335</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr">
         <is>
@@ -13283,14 +13361,12 @@
         <v>19.56000000000002</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>19.3</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr">
         <is>
@@ -13324,14 +13400,12 @@
         <v>19.56000000000002</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>19.3</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr">
         <is>
@@ -13365,14 +13439,12 @@
         <v>19.55833333333335</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>19.5</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr">
         <is>
@@ -13406,14 +13478,12 @@
         <v>19.55333333333335</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>19.2</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr">
         <is>
@@ -13447,14 +13517,12 @@
         <v>19.55333333333335</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr">
         <is>
@@ -13488,14 +13556,12 @@
         <v>19.55500000000002</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>19.3</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr">
         <is>
@@ -13529,14 +13595,12 @@
         <v>19.55500000000002</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>19.2</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr">
         <is>
@@ -13570,14 +13634,12 @@
         <v>19.55000000000002</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="n">
-        <v>19.1</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr">
         <is>
@@ -13611,14 +13673,12 @@
         <v>19.54666666666669</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="n">
-        <v>19</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr">
         <is>
@@ -13652,14 +13712,12 @@
         <v>19.54166666666669</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="n">
-        <v>19</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
       <c r="L367" t="inlineStr">
         <is>
@@ -13693,14 +13751,12 @@
         <v>19.54000000000002</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="n">
-        <v>19.2</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr">
         <is>
@@ -13734,14 +13790,12 @@
         <v>19.53333333333336</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="n">
-        <v>19</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
       <c r="L369" t="inlineStr">
         <is>
@@ -13775,14 +13829,12 @@
         <v>19.53000000000002</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="n">
-        <v>19.2</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr">
         <is>
@@ -13816,14 +13868,12 @@
         <v>19.52500000000002</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>19.2</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr">
         <is>
@@ -13857,14 +13907,12 @@
         <v>19.51833333333335</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="n">
-        <v>19.1</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr">
         <is>
@@ -13898,14 +13946,12 @@
         <v>19.50333333333335</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="n">
-        <v>19.1</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr">
         <is>
@@ -13939,14 +13985,12 @@
         <v>19.49666666666668</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="n">
-        <v>19.1</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr">
         <is>
@@ -13980,14 +14024,12 @@
         <v>19.48666666666669</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="n">
-        <v>19.1</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr">
         <is>
@@ -14021,14 +14063,12 @@
         <v>19.48166666666669</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
       </c>
-      <c r="J376" t="n">
-        <v>19.2</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr">
         <is>
@@ -14062,14 +14102,12 @@
         <v>19.47333333333335</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
       </c>
-      <c r="J377" t="n">
-        <v>19.2</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr">
         <is>
@@ -14103,14 +14141,12 @@
         <v>19.46666666666669</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
-      <c r="J378" t="n">
-        <v>19.5</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr">
         <is>
@@ -14144,14 +14180,12 @@
         <v>19.46333333333335</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
-      <c r="J379" t="n">
-        <v>19.3</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr">
         <is>
@@ -14185,14 +14219,12 @@
         <v>19.45666666666668</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
       </c>
-      <c r="J380" t="n">
-        <v>19.3</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr">
         <is>
@@ -14226,14 +14258,12 @@
         <v>19.45500000000002</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
       </c>
-      <c r="J381" t="n">
-        <v>19.3</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr">
         <is>
@@ -14267,14 +14297,12 @@
         <v>19.45333333333334</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
       </c>
-      <c r="J382" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr">
         <is>
@@ -14308,14 +14336,12 @@
         <v>19.44833333333334</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
       </c>
-      <c r="J383" t="n">
-        <v>19.5</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
       <c r="L383" t="inlineStr">
         <is>
@@ -14349,14 +14375,12 @@
         <v>19.45166666666668</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
       </c>
-      <c r="J384" t="n">
-        <v>19.5</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr">
         <is>
@@ -14390,14 +14414,12 @@
         <v>19.45166666666668</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
-      <c r="J385" t="n">
-        <v>19.5</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr">
         <is>
@@ -14431,14 +14453,12 @@
         <v>19.44833333333334</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
       </c>
-      <c r="J386" t="n">
-        <v>19.5</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr">
         <is>
@@ -14472,14 +14492,12 @@
         <v>19.44666666666668</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
       </c>
-      <c r="J387" t="n">
-        <v>19.5</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
       <c r="L387" t="inlineStr">
         <is>
@@ -14552,14 +14570,12 @@
         <v>19.43333333333334</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="n">
-        <v>19.4</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr">
         <is>
@@ -14593,14 +14609,12 @@
         <v>19.43500000000001</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
-      <c r="J390" t="n">
-        <v>19.5</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
       <c r="L390" t="inlineStr">
         <is>
@@ -14634,14 +14648,12 @@
         <v>19.43500000000001</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
-      <c r="J391" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr">
         <is>
@@ -14675,14 +14687,12 @@
         <v>19.43500000000001</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
       </c>
-      <c r="J392" t="n">
-        <v>19.6</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
       <c r="L392" t="inlineStr">
         <is>
@@ -14716,14 +14726,12 @@
         <v>19.44000000000001</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
       </c>
-      <c r="J393" t="n">
-        <v>20</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
       <c r="L393" t="inlineStr">
         <is>
@@ -14757,14 +14765,12 @@
         <v>19.45000000000001</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
       </c>
-      <c r="J394" t="n">
-        <v>20</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
       <c r="L394" t="inlineStr">
         <is>
@@ -14798,14 +14804,12 @@
         <v>19.46166666666668</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
       </c>
-      <c r="J395" t="n">
-        <v>20.1</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
       <c r="L395" t="inlineStr">
         <is>
@@ -21472,16 +21476,18 @@
         <v>0</v>
       </c>
       <c r="I566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
       <c r="L566" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M566" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M566" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
@@ -21513,10 +21519,12 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
-      <c r="M567" t="n">
-        <v>1</v>
-      </c>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">

--- a/BackTest/2019-10-22 BackTest OGO.xlsx
+++ b/BackTest/2019-10-22 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3685,7 +3685,7 @@
         <v>2693632.74740588</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>2623113.47880588</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>2618236.47880588</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>2627181.625653848</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>2369600.227253848</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>2167493.943653848</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>1982437.501353848</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>2050156.620653848</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>2145394.523953848</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>1807383.043753847</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>1714987.435153848</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>1875300.873253847</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>1875300.873253847</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>1562303.004410179</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>1355870.364210179</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>1726599.245810179</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>1759422.289210179</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>1741786.323410179</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>1741786.323410179</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>1333106.225610179</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>1333106.225610179</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>1271207.137210179</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>1250280.058610179</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>1251827.614110179</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>1323544.22521018</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>1276598.49521018</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>1319596.14011018</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>1317992.84551018</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -13024,14 +13024,10 @@
         <v>1325822.113135906</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
-      </c>
-      <c r="I383" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="J383" t="n">
-        <v>19.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
@@ -13061,19 +13057,11 @@
         <v>1464651.615035906</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
-      </c>
-      <c r="I384" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="J384" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13102,19 +13090,11 @@
         <v>1528284.615035906</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
-      </c>
-      <c r="I385" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J385" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13143,19 +13123,11 @@
         <v>1511082.443735906</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
-      </c>
-      <c r="I386" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="J386" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13184,19 +13156,11 @@
         <v>1517851.099535906</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
-      </c>
-      <c r="I387" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="J387" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13225,19 +13189,11 @@
         <v>1517861.099535906</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="J388" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13269,14 +13225,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13305,19 +13255,11 @@
         <v>1475724.889135906</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="J390" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13346,19 +13288,11 @@
         <v>1475724.889135906</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
-      </c>
-      <c r="I391" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="J391" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13390,14 +13324,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13429,14 +13357,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13468,14 +13390,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13507,14 +13423,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13546,14 +13456,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13585,14 +13489,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13624,14 +13522,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13660,19 +13552,11 @@
         <v>1149054.505035906</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
-      </c>
-      <c r="I399" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="J399" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13701,19 +13585,11 @@
         <v>1096964.510135906</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
-      </c>
-      <c r="I400" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="J400" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13742,19 +13618,11 @@
         <v>1096964.510135906</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
-      </c>
-      <c r="I401" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="J401" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13783,19 +13651,11 @@
         <v>1096964.510135906</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
-      </c>
-      <c r="I402" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="J402" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13824,19 +13684,11 @@
         <v>1096964.510135906</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
-      </c>
-      <c r="I403" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="J403" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13865,19 +13717,11 @@
         <v>1096964.510135906</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
-      </c>
-      <c r="I404" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="J404" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13906,19 +13750,11 @@
         <v>1096878.775335906</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
-      </c>
-      <c r="I405" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="J405" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13947,19 +13783,11 @@
         <v>1096924.775335906</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
-      </c>
-      <c r="I406" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="J406" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13991,14 +13819,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14030,14 +13852,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14069,14 +13885,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14105,19 +13915,11 @@
         <v>1062032.256835906</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
-      </c>
-      <c r="I410" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="J410" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14146,19 +13948,11 @@
         <v>598118.1741359063</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
-      </c>
-      <c r="I411" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="J411" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14187,19 +13981,11 @@
         <v>604720.2618359063</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
-      </c>
-      <c r="I412" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="J412" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14228,19 +14014,11 @@
         <v>604720.2618359063</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
-      </c>
-      <c r="I413" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="J413" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14272,14 +14050,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14308,19 +14080,11 @@
         <v>657159.8161359063</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
-      </c>
-      <c r="I415" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="J415" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14349,19 +14113,11 @@
         <v>657159.8161359063</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
-      </c>
-      <c r="I416" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="J416" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14393,14 +14149,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14429,15 +14179,15 @@
         <v>693563.2417359062</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>19.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L418" t="n">
@@ -14468,14 +14218,12 @@
         <v>691812.2417359062</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I419" t="n">
         <v>19.6</v>
       </c>
-      <c r="J419" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14509,14 +14257,12 @@
         <v>684455.8352359062</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420" t="n">
         <v>19.5</v>
       </c>
-      <c r="J420" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14550,14 +14296,10 @@
         <v>684455.8352359062</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
-      </c>
-      <c r="I421" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J421" t="n">
-        <v>19.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14591,14 +14333,10 @@
         <v>732794.0483359062</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
-      </c>
-      <c r="I422" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J422" t="n">
-        <v>19.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14632,14 +14370,10 @@
         <v>732794.0483359062</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
-      </c>
-      <c r="I423" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="J423" t="n">
-        <v>19.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14673,14 +14407,10 @@
         <v>562316.2001359062</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
-      </c>
-      <c r="I424" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="J424" t="n">
-        <v>19.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14714,14 +14444,10 @@
         <v>497625.6076359062</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
-      </c>
-      <c r="I425" t="n">
-        <v>19</v>
-      </c>
-      <c r="J425" t="n">
-        <v>19.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14755,14 +14481,10 @@
         <v>524654.0248359062</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
-      </c>
-      <c r="I426" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="J426" t="n">
-        <v>19.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14796,14 +14518,12 @@
         <v>524746.0248359062</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>19</v>
       </c>
-      <c r="J427" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14837,14 +14557,12 @@
         <v>289934.5644359062</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I428" t="n">
         <v>19.2</v>
       </c>
-      <c r="J428" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14878,14 +14596,12 @@
         <v>328055.8904359062</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>19</v>
       </c>
-      <c r="J429" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14919,14 +14635,12 @@
         <v>224328.4625359062</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>19.2</v>
       </c>
-      <c r="J430" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14960,14 +14674,12 @@
         <v>224328.4625359062</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I431" t="n">
         <v>19.1</v>
       </c>
-      <c r="J431" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15001,14 +14713,12 @@
         <v>236734.4625359062</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I432" t="n">
         <v>19.1</v>
       </c>
-      <c r="J432" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15042,14 +14752,12 @@
         <v>231612.4625359062</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I433" t="n">
         <v>19.2</v>
       </c>
-      <c r="J433" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15083,14 +14791,12 @@
         <v>283645.4625359062</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I434" t="n">
         <v>19.1</v>
       </c>
-      <c r="J434" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15124,14 +14830,12 @@
         <v>715084.6996359063</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I435" t="n">
         <v>19.2</v>
       </c>
-      <c r="J435" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15165,14 +14869,12 @@
         <v>705436.7399359063</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I436" t="n">
         <v>19.3</v>
       </c>
-      <c r="J436" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15206,14 +14908,12 @@
         <v>707930.2301359063</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>19.2</v>
       </c>
-      <c r="J437" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15247,14 +14947,12 @@
         <v>827456.7399359063</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I438" t="n">
         <v>19.3</v>
       </c>
-      <c r="J438" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15288,14 +14986,12 @@
         <v>763232.4740359063</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I439" t="n">
         <v>19.5</v>
       </c>
-      <c r="J439" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15329,14 +15025,12 @@
         <v>1005167.242735906</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I440" t="n">
         <v>19.3</v>
       </c>
-      <c r="J440" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15370,12 +15064,12 @@
         <v>1005167.242735906</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>19.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15409,12 +15103,12 @@
         <v>896590.3197359063</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>19.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15448,12 +15142,12 @@
         <v>908714.0889359063</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>19.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15487,12 +15181,12 @@
         <v>908704.0889359063</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>19.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15529,9 +15223,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15568,9 +15260,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15607,9 +15297,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15643,12 +15331,12 @@
         <v>839495.8835359063</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>19.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15685,9 +15373,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15724,9 +15410,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15763,9 +15447,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15802,9 +15484,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15841,9 +15521,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15880,9 +15558,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15919,9 +15595,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15958,9 +15632,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15997,9 +15669,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16036,9 +15706,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16075,9 +15743,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16114,9 +15780,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16153,9 +15817,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16192,9 +15854,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16231,9 +15891,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16270,9 +15928,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16309,9 +15965,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16348,9 +16002,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16387,9 +16039,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16426,9 +16076,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16465,9 +16113,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16504,9 +16150,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16543,9 +16187,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16582,9 +16224,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16621,9 +16261,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16660,9 +16298,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16699,9 +16335,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16738,9 +16372,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16777,9 +16409,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16816,9 +16446,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16855,9 +16483,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16894,9 +16520,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16933,9 +16557,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16972,9 +16594,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17011,9 +16631,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17050,9 +16668,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17089,9 +16705,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17128,9 +16742,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17167,9 +16779,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17206,9 +16816,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17245,9 +16853,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17284,9 +16890,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17323,9 +16927,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17362,9 +16964,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17401,9 +17001,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17440,9 +17038,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17479,9 +17075,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17518,9 +17112,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17557,9 +17149,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17596,9 +17186,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17635,9 +17223,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17674,9 +17260,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17713,9 +17297,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17752,9 +17334,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17791,9 +17371,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17830,9 +17408,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17869,9 +17445,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17908,9 +17482,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17947,9 +17519,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17986,9 +17556,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18025,9 +17593,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18064,9 +17630,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18103,9 +17667,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18142,9 +17704,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18181,9 +17741,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18220,9 +17778,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18259,9 +17815,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18298,9 +17852,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18337,9 +17889,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18376,9 +17926,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18415,9 +17963,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18454,9 +18000,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18493,9 +18037,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18532,9 +18074,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18571,9 +18111,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18610,9 +18148,7 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18649,9 +18185,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18688,9 +18222,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18727,9 +18259,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18766,9 +18296,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18805,9 +18333,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18844,9 +18370,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18883,9 +18407,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18922,9 +18444,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18961,9 +18481,7 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19000,9 +18518,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19039,9 +18555,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19078,9 +18592,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19117,9 +18629,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19156,9 +18666,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19195,9 +18703,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19234,9 +18740,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19273,9 +18777,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19312,9 +18814,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19351,9 +18851,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19390,9 +18888,7 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19429,9 +18925,7 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19468,9 +18962,7 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19507,9 +18999,7 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19546,9 +19036,7 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19585,9 +19073,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19624,9 +19110,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19663,9 +19147,7 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19702,9 +19184,7 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19741,9 +19221,7 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19780,9 +19258,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19819,9 +19295,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19858,9 +19332,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19897,9 +19369,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19936,9 +19406,7 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19975,9 +19443,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20014,9 +19480,7 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20053,9 +19517,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20092,9 +19554,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20131,9 +19591,7 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20170,9 +19628,7 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20209,9 +19665,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20248,9 +19702,7 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20287,9 +19739,7 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20326,9 +19776,7 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20365,9 +19813,7 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20404,9 +19850,7 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20443,9 +19887,7 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20482,9 +19924,7 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20521,9 +19961,7 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20560,9 +19998,7 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20599,9 +20035,7 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20638,9 +20072,7 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20677,9 +20109,7 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20716,9 +20146,7 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20755,9 +20183,7 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20794,9 +20220,7 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20833,9 +20257,7 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20872,9 +20294,7 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20911,9 +20331,7 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20950,9 +20368,7 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20989,9 +20405,7 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21028,9 +20442,7 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21067,9 +20479,7 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21106,9 +20516,7 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21145,9 +20553,7 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21184,9 +20590,7 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21223,9 +20627,7 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21262,9 +20664,7 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21301,9 +20701,7 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21340,9 +20738,7 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21379,9 +20775,7 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21418,9 +20812,7 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21457,9 +20849,7 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21496,9 +20886,7 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21535,9 +20923,7 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21574,9 +20960,7 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21613,9 +20997,7 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21652,9 +21034,7 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21691,9 +21071,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21730,9 +21108,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21769,9 +21145,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21808,9 +21182,7 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21847,9 +21219,7 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21886,9 +21256,7 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21925,9 +21293,7 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21964,9 +21330,7 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22003,9 +21367,7 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22042,9 +21404,7 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22081,9 +21441,7 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22120,9 +21478,7 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22159,9 +21515,7 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22198,9 +21552,7 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22237,9 +21589,7 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22276,9 +21626,7 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22315,9 +21663,7 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22354,9 +21700,7 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22393,9 +21737,7 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22432,9 +21774,7 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22468,23 +21808,19 @@
         <v>2090657.469351329</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L623" t="n">
-        <v>1.202070707070707</v>
-      </c>
-      <c r="M623" t="n">
-        <v>1.298429319371728</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
@@ -22509,11 +21845,15 @@
         <v>1187600.983451329</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22542,11 +21882,15 @@
         <v>1100710.775351329</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22575,11 +21919,15 @@
         <v>1100710.775351329</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22608,11 +21956,15 @@
         <v>1201541.452251329</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22641,11 +21993,15 @@
         <v>378985.9767513294</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22678,7 +22034,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22711,7 +22071,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22740,11 +22104,15 @@
         <v>204100.9359513294</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22777,7 +22145,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22810,7 +22182,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22843,7 +22219,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22876,7 +22256,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22909,7 +22293,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22942,7 +22330,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22975,7 +22367,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -23008,7 +22404,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -23041,7 +22441,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -23074,7 +22478,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -23107,7 +22515,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -23140,7 +22552,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -23173,7 +22589,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23206,7 +22626,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23239,7 +22663,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23272,7 +22700,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23305,7 +22737,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23338,7 +22774,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23371,7 +22811,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23404,7 +22848,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23437,7 +22885,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23470,7 +22922,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23503,7 +22959,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23536,7 +22996,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23569,7 +23033,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23602,7 +23070,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23635,7 +23107,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23668,7 +23144,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23701,7 +23181,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23734,7 +23218,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23767,7 +23255,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23800,7 +23292,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23833,7 +23329,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23866,7 +23366,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23899,7 +23403,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23932,7 +23440,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23965,7 +23477,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23998,7 +23514,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -24031,7 +23551,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24064,7 +23588,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24097,7 +23625,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24130,7 +23662,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24163,7 +23699,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24196,7 +23736,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24229,7 +23773,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24262,7 +23810,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24295,7 +23847,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24328,7 +23884,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24361,7 +23921,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24394,7 +23958,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24427,7 +23995,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24460,7 +24032,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24493,7 +24069,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24526,7 +24106,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24559,7 +24143,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24592,7 +24180,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24625,7 +24217,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24658,7 +24254,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24691,7 +24291,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24724,7 +24328,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24757,7 +24365,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24790,7 +24402,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24823,7 +24439,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24856,7 +24476,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24889,7 +24513,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24922,7 +24550,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24955,7 +24587,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24988,7 +24624,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -25021,7 +24661,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -25054,7 +24698,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25087,7 +24735,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25120,7 +24772,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25153,7 +24809,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25186,7 +24846,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -25219,7 +24883,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25252,7 +24920,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25285,7 +24957,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25318,7 +24994,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25351,7 +25031,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25384,7 +25068,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25417,7 +25105,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25450,7 +25142,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25483,7 +25179,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25516,7 +25216,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25549,7 +25253,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25582,7 +25290,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25615,7 +25327,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25648,7 +25364,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25681,7 +25401,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25714,7 +25438,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25747,7 +25475,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25780,7 +25512,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25813,7 +25549,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25846,7 +25586,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25879,7 +25623,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25912,7 +25660,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25945,7 +25697,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25978,7 +25734,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -26011,7 +25771,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -26044,7 +25808,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -26077,7 +25845,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -26110,7 +25882,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -26143,7 +25919,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -26176,7 +25956,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -26209,7 +25993,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -26242,7 +26030,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -26275,7 +26067,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -26308,7 +26104,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -26341,7 +26141,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26374,7 +26178,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -26407,7 +26215,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -26440,7 +26252,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -26473,7 +26289,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26506,7 +26326,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26539,7 +26363,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26572,7 +26400,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26605,7 +26437,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26638,7 +26474,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26671,7 +26511,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26704,7 +26548,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26737,7 +26585,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26770,7 +26622,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26803,7 +26659,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26836,7 +26696,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26869,7 +26733,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26902,7 +26770,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26935,7 +26807,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26968,7 +26844,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -27001,7 +26881,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -27034,7 +26918,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -27067,7 +26955,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -27100,7 +26992,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -27133,7 +27029,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27166,7 +27066,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -27199,7 +27103,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -27232,7 +27140,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -27265,7 +27177,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -27298,7 +27214,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -27331,7 +27251,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -27364,7 +27288,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -27397,7 +27325,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -27430,7 +27362,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -27463,7 +27399,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -27496,7 +27436,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -27529,7 +27473,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -27562,7 +27510,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -27595,7 +27547,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27628,7 +27584,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27661,7 +27621,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -27694,7 +27658,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27727,7 +27695,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27760,7 +27732,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27793,7 +27769,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27826,7 +27806,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27859,7 +27843,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27892,7 +27880,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27925,7 +27917,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27958,7 +27954,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27991,7 +27991,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -28024,7 +28028,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -28057,7 +28065,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -28090,7 +28102,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -28123,7 +28139,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -28156,7 +28176,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -28189,7 +28213,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -28222,7 +28250,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -28255,7 +28287,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -28288,7 +28324,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -28321,7 +28361,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -28354,7 +28398,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -28387,7 +28435,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -28420,7 +28472,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -28453,7 +28509,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -28486,7 +28546,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -28519,7 +28583,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -28552,7 +28620,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -28585,7 +28657,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -28618,7 +28694,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -28651,13 +28731,17 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
       <c r="M810" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest OGO.xlsx
+++ b/BackTest/2019-10-22 BackTest OGO.xlsx
@@ -451,7 +451,7 @@
         <v>434569.3299794932</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>434569.3299794932</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>459418.5586794932</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>337187.1505794932</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>2356452.397553848</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>2089984.181853848</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>2145394.523953848</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>2259124.539853848</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>1807383.043753847</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>1807383.043753847</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>1714987.435153848</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>1875300.873253847</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>1875300.873253847</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>1833271.965753848</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>1748366.951053848</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>1784670.508353848</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>1726709.229753847</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>1726709.229753847</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>1532909.768653848</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-45812.31714867071</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-71786.34304867071</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>24819.15695132929</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-16585.6948486707</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-11366.7534486707</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>40476.77525132929</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>85432.5341513293</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>83113.57425132929</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>184338.6471513293</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -26620,11 +26620,17 @@
         <v>-2036088.280579193</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>21.1</v>
+      </c>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26653,11 +26659,17 @@
         <v>-2036088.280579193</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>21.3</v>
+      </c>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26686,11 +26698,17 @@
         <v>-2168204.284479193</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>21.3</v>
+      </c>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26724,10 +26742,12 @@
       <c r="I798" t="n">
         <v>20.6</v>
       </c>
-      <c r="J798" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K798" t="inlineStr"/>
+      <c r="J798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26761,12 +26781,10 @@
       <c r="I799" t="n">
         <v>21.3</v>
       </c>
-      <c r="J799" t="n">
-        <v>20.6</v>
-      </c>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L799" t="n">
@@ -26802,12 +26820,10 @@
       <c r="I800" t="n">
         <v>21.3</v>
       </c>
-      <c r="J800" t="n">
-        <v>20.6</v>
-      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L800" t="n">
@@ -26843,12 +26859,10 @@
       <c r="I801" t="n">
         <v>21.3</v>
       </c>
-      <c r="J801" t="n">
-        <v>20.6</v>
-      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L801" t="n">
@@ -26884,9 +26898,7 @@
       <c r="I802" t="n">
         <v>21.2</v>
       </c>
-      <c r="J802" t="n">
-        <v>20.6</v>
-      </c>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26925,9 +26937,7 @@
       <c r="I803" t="n">
         <v>21.2</v>
       </c>
-      <c r="J803" t="n">
-        <v>20.6</v>
-      </c>
+      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26966,9 +26976,7 @@
       <c r="I804" t="n">
         <v>21.3</v>
       </c>
-      <c r="J804" t="n">
-        <v>20.6</v>
-      </c>
+      <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27007,9 +27015,7 @@
       <c r="I805" t="n">
         <v>21.3</v>
       </c>
-      <c r="J805" t="n">
-        <v>20.6</v>
-      </c>
+      <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27048,9 +27054,7 @@
       <c r="I806" t="n">
         <v>21.3</v>
       </c>
-      <c r="J806" t="n">
-        <v>20.6</v>
-      </c>
+      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27089,9 +27093,7 @@
       <c r="I807" t="n">
         <v>21.3</v>
       </c>
-      <c r="J807" t="n">
-        <v>20.6</v>
-      </c>
+      <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27130,9 +27132,7 @@
       <c r="I808" t="n">
         <v>21.3</v>
       </c>
-      <c r="J808" t="n">
-        <v>20.6</v>
-      </c>
+      <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27171,9 +27171,7 @@
       <c r="I809" t="n">
         <v>21.1</v>
       </c>
-      <c r="J809" t="n">
-        <v>20.6</v>
-      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27212,9 +27210,7 @@
       <c r="I810" t="n">
         <v>21.2</v>
       </c>
-      <c r="J810" t="n">
-        <v>20.6</v>
-      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
